--- a/Chaldal_scraper/scrapped_data/Chaldaal_submenu_test.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_submenu_test.xlsx
@@ -638,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,840 +661,780 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fruits &amp; Vegetables</t>
+          <t>Fresh Vegetables</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://chaldal.com/fruits-vegetables</t>
+          <t>https://chaldal.com/fresh-vegetable</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Meat &amp; Fish</t>
+          <t>Fresh Fruits</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://chaldal.com/meat-fish</t>
+          <t>https://chaldal.com/fresh-fruit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cooking</t>
+          <t>Dates (Khejur)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://chaldal.com/cooking</t>
+          <t>https://chaldal.com/dates-khejur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sauces &amp; Pickles</t>
+          <t>Chicken &amp; Poultry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://chaldal.com/sauces-pickles</t>
+          <t>https://chaldal.com/chicken-poultry</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dairy &amp; Eggs</t>
+          <t>Premium Perishables</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://chaldal.com/dairy</t>
+          <t>https://chaldal.com/premium-perishables</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Breakfast</t>
+          <t>Frozen Fish</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://chaldal.com/breakfast</t>
+          <t>https://chaldal.com/frozen-fish</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Candy &amp; Chocolate</t>
+          <t>Meat</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://chaldal.com/candy-chocolate</t>
+          <t>https://chaldal.com/meat-new</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Snacks</t>
+          <t>Tofu &amp; Meat Alternatives</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://chaldal.com/snacks</t>
+          <t>https://chaldal.com/tofu-meat-alternatives</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Dried Fish</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://chaldal.com/beverages</t>
+          <t>https://chaldal.com/dried-fish</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Baking</t>
+          <t>Spices</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://chaldal.com/baking-needs</t>
+          <t>https://chaldal.com/spices</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Frozen &amp; Canned</t>
+          <t>Salt &amp; Sugar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://chaldal.com/frozen-foods</t>
+          <t>https://chaldal.com/salt-sugar</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diabetic Food</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://chaldal.com/diabetic-food</t>
+          <t>https://chaldal.com/rices</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fresh Vegetables</t>
+          <t>Dal or Lentil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://chaldal.com/fresh-vegetable</t>
+          <t>https://chaldal.com/dal-or-lentil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fresh Fruits</t>
+          <t>Ready Mix</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://chaldal.com/fresh-fruit</t>
+          <t>https://chaldal.com/ready-mix</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dates (Khejur)</t>
+          <t>Shemai &amp; Suji</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://chaldal.com/dates-khejur</t>
+          <t>https://chaldal.com/shemai-suji</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chicken &amp; Poultry</t>
+          <t>Special Ingredients</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://chaldal.com/chicken-poultry</t>
+          <t>https://chaldal.com/miscellaneous</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Premium Perishables</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://chaldal.com/premium-perishables</t>
+          <t>https://chaldal.com/oil</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Frozen Fish</t>
+          <t>Colors &amp; Flavours</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://chaldal.com/frozen-fish</t>
+          <t>https://chaldal.com/colors-flavours</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Meat</t>
+          <t>Ghee</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://chaldal.com/meat-new</t>
+          <t>https://chaldal.com/ghee</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tofu &amp; Meat Alternatives</t>
+          <t>Premium Ingredients</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://chaldal.com/tofu-meat-alternatives</t>
+          <t>https://chaldal.com/premium-ingredients</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dried Fish</t>
+          <t>Tomato Sauces</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://chaldal.com/dried-fish</t>
+          <t>https://chaldal.com/tomato-sauces</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spices</t>
+          <t>Pickles</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://chaldal.com/spices</t>
+          <t>https://chaldal.com/pickles</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Salt &amp; Sugar</t>
+          <t>Cooking Sauces</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://chaldal.com/salt-sugar</t>
+          <t>https://chaldal.com/cooking-sauces</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Other Table Sauces</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://chaldal.com/rices</t>
+          <t>https://chaldal.com/other-sauces</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dal or Lentil</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://chaldal.com/dal-or-lentil</t>
+          <t>https://chaldal.com/eggs-2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ready Mix</t>
+          <t>Breads</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://chaldal.com/ready-mix</t>
+          <t>https://chaldal.com/breads</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Shemai &amp; Suji</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://chaldal.com/shemai-suji</t>
+          <t>https://chaldal.com/tea-coffee-2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Special Ingredients</t>
+          <t>Local Breakfast</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://chaldal.com/miscellaneous</t>
+          <t>https://chaldal.com/local-breakfast</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Cereals</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://chaldal.com/oil</t>
+          <t>https://chaldal.com/cereals</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colors &amp; Flavours</t>
+          <t>Honey</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://chaldal.com/colors-flavours</t>
+          <t>https://chaldal.com/honey</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ghee</t>
+          <t>Dips, Spreads &amp; Syrups</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://chaldal.com/ghee</t>
+          <t>https://chaldal.com/spreads-syrups</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Premium Ingredients</t>
+          <t>Energy Boosters</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://chaldal.com/premium-ingredients</t>
+          <t>https://chaldal.com/energy-boosters</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chocolates</t>
+          <t>Jams &amp; Jellies</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://chaldal.com/chocolates</t>
+          <t>https://chaldal.com/jams-jellies</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wafers</t>
+          <t>Tea</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://chaldal.com/wafers</t>
+          <t>https://chaldal.com/beverages-tea</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Candies</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://chaldal.com/candies</t>
+          <t>https://chaldal.com/soft-drinks</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gums, Mints &amp; Mouth Fresheners</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://chaldal.com/mints-mouth-fresheners</t>
+          <t>https://chaldal.com/coffees</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jellies &amp; Marshmallows</t>
+          <t>Syrups &amp; Powder Drinks</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://chaldal.com/halal-marshmallows</t>
+          <t>https://chaldal.com/powder-mixes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Juice</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://chaldal.com/noodles</t>
+          <t>https://chaldal.com/juice</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://chaldal.com/cookies-2</t>
+          <t>https://chaldal.com/water</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Local Snacks</t>
+          <t>Flour</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://chaldal.com/local-snacks</t>
+          <t>https://chaldal.com/flour</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chips &amp; Pretzels</t>
+          <t>Nuts &amp; Dried Fruits</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://chaldal.com/chips-pretzels</t>
+          <t>https://chaldal.com/nuts-dried-fruits</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Plain Biscuits</t>
+          <t>Baking Ingredients</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://chaldal.com/plain-biscuits</t>
+          <t>https://chaldal.com/baking-ingredients</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Toast &amp; Bakery Biscuits</t>
+          <t>Baking Tools</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://chaldal.com/toast-biscuits</t>
+          <t>https://chaldal.com/baking-tools</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cream Biscuits</t>
+          <t>Baking &amp; Dessert Mixes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://chaldal.com/cream-biscuits</t>
+          <t>https://chaldal.com/baking-mixes</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pasta &amp; Macaroni</t>
+          <t>Chicken Snacks</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://chaldal.com/pasta-macaroni</t>
+          <t>https://chaldal.com/chicken-snacks</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Soups</t>
+          <t>Frozen Parathas &amp; Roti</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://chaldal.com/soups</t>
+          <t>https://chaldal.com/frozen-parathas-roti</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Popcorn &amp; Nuts</t>
+          <t>Vegetable Snacks</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://chaldal.com/popcorn-nuts</t>
+          <t>https://chaldal.com/vegetable-snacks</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Salted Biscuits</t>
+          <t>Mushroom Cans</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://chaldal.com/salted-biscuits</t>
+          <t>https://chaldal.com/mushroom-cans</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cakes</t>
+          <t>Beef Snacks</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://chaldal.com/cakes</t>
+          <t>https://chaldal.com/beef-snacks</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Salad Dressing</t>
+          <t>Vegetable Cans</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://chaldal.com/salad-dressing</t>
+          <t>https://chaldal.com/vegetable-cans</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tea</t>
+          <t>Fish Cans</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://chaldal.com/beverages-tea</t>
+          <t>https://chaldal.com/fish-cans</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Canned Fruits &amp; Sweets</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://chaldal.com/soft-drinks</t>
+          <t>https://chaldal.com/canned-fruits</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Fish Snacks</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://chaldal.com/coffees</t>
+          <t>https://chaldal.com/fish-snacks</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Syrups &amp; Powder Drinks</t>
+          <t>Fruits &amp; Vegetables</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://chaldal.com/powder-mixes</t>
+          <t>https://chaldal.com/fruits-vegetables</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Juice</t>
+          <t>Meat &amp; Fish</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://chaldal.com/juice</t>
+          <t>https://chaldal.com/meat-fish</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Cooking</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://chaldal.com/water</t>
+          <t>https://chaldal.com/cooking</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Flour</t>
+          <t>Sauces &amp; Pickles</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://chaldal.com/flour</t>
+          <t>https://chaldal.com/sauces-pickles</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nuts &amp; Dried Fruits</t>
+          <t>Dairy &amp; Eggs</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://chaldal.com/nuts-dried-fruits</t>
+          <t>https://chaldal.com/dairy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Baking Ingredients</t>
+          <t>Breakfast</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://chaldal.com/baking-ingredients</t>
+          <t>https://chaldal.com/breakfast</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Baking Tools</t>
+          <t>Candy &amp; Chocolate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://chaldal.com/baking-tools</t>
+          <t>https://chaldal.com/candy-chocolate</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Baking &amp; Dessert Mixes</t>
+          <t>Snacks</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://chaldal.com/baking-mixes</t>
+          <t>https://chaldal.com/snacks</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chicken Snacks</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://chaldal.com/chicken-snacks</t>
+          <t>https://chaldal.com/beverages</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frozen Parathas &amp; Roti</t>
+          <t>Baking</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://chaldal.com/frozen-parathas-roti</t>
+          <t>https://chaldal.com/baking-needs</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vegetable Snacks</t>
+          <t>Frozen &amp; Canned</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://chaldal.com/vegetable-snacks</t>
+          <t>https://chaldal.com/frozen-foods</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mushroom Cans</t>
+          <t>Diabetic Food</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://chaldal.com/mushroom-cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Beef Snacks</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://chaldal.com/beef-snacks</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Vegetable Cans</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>https://chaldal.com/vegetable-cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Fish Cans</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://chaldal.com/fish-cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Canned Fruits &amp; Sweets</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>https://chaldal.com/canned-fruits</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Fish Snacks</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://chaldal.com/fish-snacks</t>
+          <t>https://chaldal.com/diabetic-food</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1547,20 +1487,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Crown Dabbas Dates</t>
+          <t>Date Crown Lulu Dates</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>৳ 549</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Ramadan</t>
@@ -1570,16 +1514,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Ajwa Premium Dates</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>৳ 769</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>৳ 693</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Ramadan</t>
@@ -1589,49 +1541,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crown Dabbas Dates</t>
+          <t>Shagor Kola (Banana Sagor)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>4 pcs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>৳ 549</t>
+          <t>৳ 49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Fresh Fruits</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Banana Chompa (Ready To Eat)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>৳ 769</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>৳ 26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Banana Chompa (kola) is the most popular fresh fruit in the world. It has lots of variety. Banana Chompa is one of them. Bananas are a great super food that provides us with energy, makes us feel full, and provides our body with essential nutrients and a high amount of fiber. It is a high-calorie tropical fruit. As 100 grams of banana flesh carries 90 calories. Besides, it contains a good amount of health-benefiting fiber, anti-oxidants, minerals, and vitamins. Bananas could help you to feel happier as they contain tryptophan, a type of protein that the body converts into serotonin, known to promote relaxation and improve mood.</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Fresh Fruits</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
+          <t>Chaldal Premium Broiler Chicken Curry Cut ± 50 gm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1641,78 +1601,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>৳ 69</t>
+          <t>৳ 349</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
+          <t>Every 1 kg of the product will contain 22-25 pcs of Premium Broiler Chicken  This is processed and packaged by Chaldal's processing plant. The hygiene is well maintained and halal way is maintained.  Our curry cut offers a healthy and high-quality protein option that's sure to impress. No added hormones or preservatives, it's a healthy and high-quality protein option that's sure to elevate your meals.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fresh Vegetables</t>
+          <t>Premium Perishables</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Potato Regular (± 50 gm)</t>
+          <t>Chaldal Premium Pangas Fish Headless ±30 gm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>৳ 45</t>
+          <t>৳ 199</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 -22 pcs  Buy regular potato from us which provides you with dietary fiber, potassium, vitamins, etc. Regular potato provides 9-10 percent of your daily need. Regular potatoes offer more of this nutrient which helps control your blood pressure. Make a good curry with regular potato. You can make French fries and you can enjoy with your family members. </t>
+          <t>Pangas is a less bony fish, it has pink flesh and a mild smell which makes it popular. Pangas flesh is tender and has a moist &amp; sweet flavor. When cooked the flesh turns white and flaky.  Chaldal Pangas Curry Cut each pack contains 500gm which has 7 to 11 pics fish steak.  Pangas is a versatile fish that can be cooked in a variety of ways, including baking, grilling, frying, and steaming. It is a low-fat, low-calorie protein source that is rich in essential nutrients like Omega-3 fatty acids, vitamins B12 and D, and minerals such as phosphorus and selenium. Whether you are a professional chef or a home cook, Pangas fish is a great option for those who want to include more seafood in their diet. Order Pangas fish today and add a healthy, delicious, and easy-to-cook option to your menu!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fresh Vegetables</t>
+          <t>Premium Perishables</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Date Crown Lulu Dates</t>
+          <t>Horina Chingri (Shrimp) 60-70 pcs ±15 gm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>৳ 249</t>
+          <t>৳ 229</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+          <t xml:space="preserve">Before Processing this product live weight was 270 gm and the product quantity around 60-70 pcs.  Source: CULTURED /GHER  Horina Chingri Shiny, moist, and even slippery skin.In Khulna &amp; Shatkhira area best quality Horina Chingri is available. </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dates (Khejur)</t>
+          <t>Frozen Fish</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ajwa Premium Dates</t>
+          <t>Bagda Chingri (Shrimp) 35-40 pcs ±30 gm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1722,1376 +1682,852 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>৳ 693</t>
+          <t>৳ 469</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+          <t xml:space="preserve">Before Processing this product live weight was 520 gm and the product quantity around 35-40 pcs.  Source:CULTURED /GHER  English Name: Tiger Prawn. Bengali Name: Bagda Chingri.Tiger prawns are large-bodied . Tiger prawns get their common name from the stripes that cover their shell..In Khulna &amp; Satkhira area best quality Tiger Prawn fish available. </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dates (Khejur)</t>
+          <t>Frozen Fish</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Horina Chingri (Shrimp) 60-70 pcs ±15 gm</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>250 gm</t>
-        </is>
-      </c>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>৳ 229</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Before Processing this product live weight was 270 gm and the product quantity around 60-70 pcs.  Source: CULTURED /GHER  Horina Chingri Shiny, moist, and even slippery skin.In Khulna &amp; Shatkhira area best quality Horina Chingri is available. </t>
-        </is>
-      </c>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Frozen Fish</t>
+          <t>Meat</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bagda Chingri (Shrimp) 35-40 pcs ±30 gm</t>
+          <t>Broiler Chicken Skin On ± 50 gm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>৳ 469</t>
+          <t>৳ 339</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before Processing this product live weight was 520 gm and the product quantity around 35-40 pcs.  Source:CULTURED /GHER  English Name: Tiger Prawn. Bengali Name: Bagda Chingri.Tiger prawns are large-bodied . Tiger prawns get their common name from the stripes that cover their shell..In Khulna &amp; Satkhira area best quality Tiger Prawn fish available. </t>
+          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Frozen Fish</t>
+          <t>Meat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Fargo Safe Dry Fish (Chingri Shutki)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>250 gm</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>৳ 259</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>৳ 290</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fargo is introducing safe and Organic Chingri Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Meat</t>
+          <t>Dried Fish</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Broiler Chicken Skin On ± 50 gm</t>
+          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>৳ 339</t>
+          <t>৳ 305</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
+          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Meat</t>
+          <t>Dried Fish</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tofu</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>150 gm</t>
-        </is>
-      </c>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>৳ 69</t>
+          <t>৳ 259</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tofu &amp; Meat Alternatives</t>
+          <t>Ready Mix</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole Can</t>
+          <t>Radhuni Biryani Masala</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>425 gm</t>
+          <t>40 gm</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>৳ 179</t>
+          <t>৳ 60</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+          <t>Specially made mixed spices for mutton, beef, and chicken biryani. The mixing of different spices maintains the standard recipe to prepare delicious Biryani.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tofu &amp; Meat Alternatives</t>
+          <t>Ready Mix</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chinigura Rice Premium</t>
+          <t>Dekko Shahi Shemai</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>180 gm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>৳ 149</t>
+          <t>৳ 40</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Shemai &amp; Suji</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Miniket Rice Premium (Boiled) ± 50 gm</t>
+          <t>Cock Vermicelli (Shemai)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>৳ 379</t>
+          <t>৳ 45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chaldal is offering the most popular Rice in Bangladesh now available at affordable price. Rice Type: Miniket Premium.  Net Weight 5 kg.  </t>
+          <t>Cock Vermicelli (Shemai) made of pure flour. Its very tasty and healthy. Cock Vermically (Shemai) can be the nice dessert for your family.  Manufactured by: Hashem Foods Ltd.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Shemai &amp; Suji</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Chickpea Flour (Boot Beshon)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>৳ 259</t>
+          <t>৳ 69</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ready Mix</t>
+          <t>Special Ingredients</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Radhuni Chicken Masala</t>
+          <t>Nutmeg (Jayfal) Whole</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20 gm</t>
+          <t>5 pcs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>৳ 20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Radhuni Chicken Masala mix helps you prepare rich and aromatic Chicken Curry for an appetizing and flavorful dish in an easy manner at the comfort of your home. Serving for 7-8 people, this 20gm convenient pack is ideal for 1 KG size chicken.</t>
-        </is>
-      </c>
+          <t>৳ 59</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ready Mix</t>
+          <t>Special Ingredients</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sagudana</t>
+          <t>Ahmed White Vinegar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>325 ml</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>৳ 45</t>
+          <t>৳ 50</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sabuda, also known as tapioca pearl or sago, is a starch extracted from the roots of tapioca and processed into pearl-like spears. It contains a high amount of carbohydrates, making it a fast energy booster. Due to its neutral flavor, it can also add texture to breads and soups without affecting the taste.</t>
+          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Special Ingredients</t>
+          <t>Colors &amp; Flavours</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nutmeg (Jayfal) Whole</t>
+          <t>Radhuni Kasundi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5 pcs</t>
+          <t>285 ml</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>৳ 59</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>৳ 65</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kasundi is a protein-rich, spicy relish made from mustard seeds. A condiment and a taste-enhancer. Kasundi brings out the best taste in whatever it is paired up with: seasonal green fruits, snacks such as “shingara” &amp; “pakora”. Recent use of this condiment is in the preparation of “Shorshe Ilish”- a famous traditional recipe in Bengali cuisine &amp; even as salad dressings. A dash of Radhuni Kasundi with any food will leave your taste buds tingling with joy.</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Special Ingredients</t>
+          <t>Colors &amp; Flavours</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rupchanda Fortified Soyabean Oil</t>
+          <t>Chia Seed</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5 ltr</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>৳ 800</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth.</t>
-        </is>
-      </c>
+          <t>৳ 89</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Premium Ingredients</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rupchanda Fortified Soyabean Oil</t>
+          <t>Fit Food Chia Seed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2 ltr</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>৳ 328</t>
+          <t>৳ 320</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
+          <t>Best Grade Chia Seed (Good Source of Fibre, Minerals and Omega Fatty Acid )  Benefits of Chia Seeds:  1. The High Fiber and Protein Content in Chia Seeds May Help You Lose Weight 2. Chia Seeds Are Loaded With Antioxidants 3. Almost All the Carbs in Them Are Fiber 4. Chia Seeds Are High in Quality Protein 5. Chia Seeds Deliver a Massive Amount of Nutrients With Very Few Calories 6. Chia Seeds Are High in Omega-3 Fatty Acids 7. Chia Seeds May Lower Your Risk of Heart Disease Given that chia seeds are high in fiber, protein an 8. They’re High in Many Important Bone Nutrients 9. Chia Seeds May Reduce Blood Sugar Levels 10. They May Reduce Chronic Inflammation 11. Chia Seeds Are Easy to Incorporate Into Your Diet</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Premium Ingredients</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Radhuni Kasundi</t>
+          <t>Ruchi Red Chilli Sauce</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>285 ml</t>
+          <t>360 gm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>৳ 65</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kasundi is a protein-rich, spicy relish made from mustard seeds. A condiment and a taste-enhancer. Kasundi brings out the best taste in whatever it is paired up with: seasonal green fruits, snacks such as “shingara” &amp; “pakora”. Recent use of this condiment is in the preparation of “Shorshe Ilish”- a famous traditional recipe in Bengali cuisine &amp; even as salad dressings. A dash of Radhuni Kasundi with any food will leave your taste buds tingling with joy.</t>
+          <t>Ruchi Red Chili Sauce is an amazing taste enhancer of any daily snacks which gives an unique taste of red chili, sourness and sweetness togather. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. "</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Colors &amp; Flavours</t>
+          <t>Other Table Sauces</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Foster Clark's Culinary Essence Lemon</t>
+          <t>Ruchi Tamarind Sauce</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28 ml</t>
+          <t>370 gm</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>৳ 100</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>৳ 120</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ruchi Tamarind Sauce is made from raw tamarind and seasoned secrete recipe. It gives any general fried snacks like Pakora a different dimension of taste."</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Colors &amp; Flavours</t>
+          <t>Other Table Sauces</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cocola Chocolate Wafer Roll Jar</t>
+          <t>Purnava Omega 3 Enriched Eggs</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>170 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>৳ 70</t>
+          <t>৳ 265</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chocolate Wafer Roll is a jar of a bunch of chocolates that you can give for a child. When you go to visit somewhere, you can take it along with you. So, get it hurry with different flavor from chaldal.</t>
+          <t>Egg Weight (Per Pc): 60-70 gm   Naturally farm chicken eggs are little source of Omega 3, it contents about less than 1mg per egg. Whereas Purnava Omega 3 enriched eggs are produced by adding extra Alpha Tochopherol (Omega 3) and about 50% daily values can be met by taking 1 average size Omega 3 enriched egg per day. Purnava Omega 3 eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava Omega 3 egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wafers</t>
+          <t>Energy Boosters</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nestle KitKat 2 Finger Chocolate Wafer (India)</t>
+          <t>Purnava Vitamin E Eggs</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>৳ 40</t>
+          <t>৳ 205</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NESTLÉ KITKAT Chocolate Bar is the ideal snack for those who really value their break. Just unwrap the bar and break off one of the 2 fingers, snap it into two and savour the deliciously smooth milk chocolate.  Imported from Nestlé India</t>
+          <t>Egg Weight (Per Pc): 60-70 gm  Naturally farm chicken eggs are little source of vitamin E, it contents about less than 1mg per egg. Whereas Purnava Vitamin E enriched eggs are produced by adding extra Alpha Tochopherol (Vitamin E) and about 50% daily values can be met by taking 1 average size E enriched egg per day. Purnava E eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava E egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wafers</t>
+          <t>Energy Boosters</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Alpenliebe Juzt Jelly Snack Pack 14 pcs</t>
+          <t>Revival Karak Masala Tea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>50 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Product – Jelly Candy Flavor – Strawberry and Green Mango </t>
-        </is>
-      </c>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jellies &amp; Marshmallows</t>
+          <t>Tea</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Golden Garden Jelly Bean</t>
+          <t>Revival Karak Masala Tea (Bundle Pack) 200 gm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>150 gm</t>
+          <t>2 pcs</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>৳ 210</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Brand- Golden Garden Product of China Jelly beans are small bean-shaped candies with soft candy shells and thick gel interior. Primarily made of sugar and sold in a wide varsity of colors and flavors.</t>
-        </is>
-      </c>
+          <t>৳ 340</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jellies &amp; Marshmallows</t>
+          <t>Tea</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samyang Hot Chicken Ramen 3X Spicy</t>
+          <t>Date Crown Lulu Dates</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>140 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>৳ 163</t>
+          <t>৳ 249</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origin: Made in Korea </t>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Nuts &amp; Dried Fruits</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Samyang Hot Chicken Ramen Stew Noodles</t>
+          <t>Ajwa Premium Dates</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>145 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 693</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The Stew Type Flavor Of Samyang Noodles Has A Flakes Packet, Which Goes Into The Water At The Same Time As The Noodles. Draining The Water From The Noodles Takes A Tiny Bit More Precision As You Don't Want To Dump Out Any Of Those Hydrated Veggies. Country Of Origin : Korea 100% Halal.</t>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Nuts &amp; Dried Fruits</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BelleAme Saltish Cookies Biscuit</t>
+          <t>Cadbury Cocoa Powder Pack</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>240 gm</t>
+          <t>125 gm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>৳ 70</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origin: Bangladesh </t>
-        </is>
-      </c>
+          <t>৳ 470</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Baking Ingredients</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dekko Honey &amp; Kalo Zeera Biscuit</t>
+          <t>Goalini Plus Condensed Milk</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>144 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>৳ 105</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Baking Ingredients</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ruchi Chanachur Bar-B-Q</t>
+          <t>Cake Mold</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22 gm</t>
+          <t>3 pcs</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>৳ 10</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and tastier </t>
-        </is>
-      </c>
+          <t>৳ 135</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Local Snacks</t>
+          <t>Baking Tools</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ruchi Bbq Chanachur</t>
+          <t>Small Measurement Mug</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>each</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>৳ 100</t>
+          <t>৳ 179</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and smarter - and with it, gossiping and leisure periods can be enjoyed far better.</t>
+          <t xml:space="preserve">500 ml, Material: Heavy plastic, Made in china </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Local Snacks</t>
+          <t>Baking Tools</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kurkure Naughty Tomato Chips</t>
+          <t>Golden Harvest Deshi Paratha 20 pcs</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>37 gm</t>
+          <t>1300 gm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>৳ 25</t>
+          <t>৳ 310</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kurkure Naughty Tomato Chips 37 gm are a zesty and tangy snack that adds a playful twist to your snacking experience. These corn-based snacks are characterized by their unique twisted shape and a lively tomato seasoning that delivers a burst of tanginess and a hint of spiciness with every bite. whenever you crave a lively and satisfying bite, these chips are designed to tickle your taste buds. Enjoy the vibrant and satisfying crunch of Kurkure Naughty Tomato Chips and add a dash of playfulness to your snacking moments.</t>
+          <t>Get a classic golden frozen paratha family pack from us as your daily breakfast. One pack covers for one family. Hassle-free and easy to serve. Just tear off the packet and put it on the griddle for a few minutes and then serve it. It’s a good food for your good health.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chips &amp; Pretzels</t>
+          <t>Frozen Parathas &amp; Roti</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ruchi BBQ Potato Crackers</t>
+          <t>Jhatpot Low Fat Paratha 1200 gm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25 gm</t>
+          <t>20 pcs</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>৳ 15</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>RUCHI Potato Crackers - Bar-B-Q is a prominent flavor in the RUCHI Potato Crackers product line. Devoid of artificial ingredients and preservatives, it has an amazing Bar-B-Q flavor, and is enriched with protein, iron, and much more! Mixing the latest flavor trends with the invigorating crisp, Ruchi Bar-B-Q is poised to be the choice of chips across all age groups.</t>
-        </is>
-      </c>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chips &amp; Pretzels</t>
+          <t>Frozen Parathas &amp; Roti</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dekko Marie Classic Biscuit</t>
+          <t>Hibiscus Mushrooms Choice Whole Can</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>222 gm</t>
+          <t>425 gm</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>৳ 60</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Plain Biscuits</t>
+          <t>Mushroom Cans</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Munchy’s Oat Krunch Breakfast Chia Seeds &amp; Milk Biscuit</t>
+          <t>Soft Shell Crab Tempura</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>192 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>৳ 410</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Healthy biscuits that are tasty, and tasty biscuits that are healthy. Just like the Oat Krunch biscuits, made with healthy oats and tasty ingredients. Oat Krunch contains sources of fiber that are trans-fat free with no preservatives and conveniently packed for whenever and wherever life takes. It is the perfect crunch for everyone! Have it all with Oat Krunch!  Oats are rich in beta-glucan powers that can help in lowering cholesterol levels, blood pressure, risk of coronary heart disease and is a healthy source of fiber.  Contains: Wheat, Soybeans, Nuts.</t>
-        </is>
-      </c>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Plain Biscuits</t>
+          <t>Fish Snacks</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Knorr Soup Chicken Corn</t>
+          <t>OceanRia Fish Sandwich</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>৳ 45</t>
+          <t>৳ 599</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Origin: Bangladesh Manufacturer: Unilever Bangladesh Ltd. Classic chicken corn soup with carefully chosen real chicken and the best-quality vegetables. Just add one egg and enjoy restaurant-like taste at home. No added preservatives Low-fat. Halal certified Ingredients: Corn starch, sugar, salt, dehydrated corn bits, soy protein, dehydrated chicken meat, hydrolyzed vegetable protein, hydrogenated vegetable oil, flavour enhancer, dehydrated leeks, spices, chicken and corn flavours (Nature identical and artificial) May contain a small amount of gluten, shrimp, celery, mustard, milk and nuts. Nutrition: Energy, Protein, fat(saturated and trans) , carbohydrates (sugar and dietary fibre), sodium</t>
+          <t>Origin: Malaysia</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Soups</t>
+          <t>Fish Snacks</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nestle Maggi Healthy Soup Thai Sachet</t>
+          <t>Sugar Free Gold 100 Pellets</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>35 gm</t>
+          <t>10 gm</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 120</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Embark on a gastronomic journey to the vibrant streets of Thailand with Nestlé Maggi Healthy Soup Thai Sachet. In a 35 gm sachet, this culinary gem encapsulates the exotic essence of Thai cuisine, delivering a taste of authentic flavors right to your table.  Maggi Healthy Soup Thai Sachet captures the essence of Thai gastronomy with a blend of aromatic herbs, spices, and carefully selected ingredients. Each spoonful transports you to bustling Thai markets and bustling street food stalls.  Bringing the magic of Thai cuisine to your kitchen has never been easier. With a simple preparation process, this soup sachet allows you to relish the rich taste of Thai herbs and spices without compromising on authenticity.</t>
+          <t>Sugar Free Gold, available in a convenient 110-pellet pack with a total weight of 11 grams, is your perfect companion in maintaining a sugar-free and low-calorie lifestyle. It is a trusted artificial sweetener that provides a delightful sweetness without the calories and health concerns associated with regular sugar. Make the switch to this trusted artificial sweetener and enjoy your favorite beverages and dishes without compromising on taste or your health goals. Trust in Sugar Free Gold to provide you with the sweetness you desire without the calories you want to avoid.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Soups</t>
+          <t>Diabetic Food</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ahmed White Vinegar</t>
+          <t>Bashundhara Brown Flour (Lal Atta)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>325 ml</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 78</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+          <t>Bashundhara Brown Flour, also known as Lal Atta, is a type of whole wheat flour that is commonly used in South Asian cuisine. It is made from grinding whole wheat grains, including the bran, germ, and endosperm, which gives it a brown color and a slightly coarser texture compared to refined wheat flour.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salad Dressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Bragg Organic Apple Cider Vinegar</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>473 ml</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>৳ 819</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Origin: USA Manufacturer: Bragg Live Food Products Bragg® Organic Apple Cider Vinegar is made from delicious organically grown apples and contains the amazing ‘Mother’ of vinegar. The ‘Mother’ consists of strands of proteins, enzymes, and friendly bacteria that give the product its murky appearance. ACV for your daily dose of wellness:   • Helps maintain a healthy weight range • Delivers prebiotics to support a healthy gut • Supports a healthy immune system • Helps maintain normal glucose levels</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Salad Dressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>RC Q Lemon Pet</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>250 ml</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>৳ 25</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Coca-Cola</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>600 ml</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Highlights: ORIGINAL FLAVOUR: Enjoy the deliciously refreshing original cola flavour of Coca-Cola BEST ENJOYED ICE-COLD: Enjoy this soft drink ice-cold for maximum refreshment YOUR MEAL PARTNER: Make meals tastier with a combo of your favourite dish and a chilled glass of Coke SHARE A COKE: Enjoy the real magic of everyday moments and share this cold drink with family &amp; friends ANYTIME &amp; ANYWHERE: Enjoy Coca-Cola’s crisp, delicious taste anytime with meals, at parties, or family gatherings RECYCLABLE BOTTLES: Coca-Cola comes in 100% recyclable bottle packaging.  Description: Happiness is about creating Real Magic from everyday moments, turning up the energy during an afternoon lull, during those hot and long exhausting days with the crisp, delicious taste of Coca-Cola Original. Make your meals tastier &amp; share a Coke ice-cold for maximum refreshment. Enjoy this carbonated soft drink while playing fun games, binge-watching your favourite series, listening to your favourite songs and making the most of your break moments. The oh-so refreshing fizz and original taste of Coca-Cola soft drink make life’s special moments a little more special.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Chickpea Flour (Boot Beshon)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>৳ 69</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Flour</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Fresh White Flour (Maida)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2 kg</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>৳ 145</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fresh White Flour, commonly known as Maida, is a finely milled and refined wheat flour. The 2 kg packaging indicates that it contains approximately 2 kilograms of white flour.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Flour</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Date Crown Lulu Dates</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>400 gm</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>৳ 249</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Nuts &amp; Dried Fruits</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Ajwa Premium Dates</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>৳ 693</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Nuts &amp; Dried Fruits</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Stainless Steel Spatula</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>৳ 239</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Baking Tools</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Transparent Disposable Piping Bags (8.5"x12.5")</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>100 pcs</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>৳ 469</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Piping bags are necessary for cake decoration. Fill these piping bags with cream and squeeze these with your hand to make designs on the cake. You can fit nozzles to these piping bags for designing easily.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Baking Tools</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>AG Food Chicken Salami 11-12 pcs</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>200 gm</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>৳ 250</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Country Of Origin: Bangladesh</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Chicken Snacks</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>AG Food Chicken Mini Samosa</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>250 gm</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>৳ 220</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>23-25 pcs crispy and delicious Chicken Mini Samosa.Storage:Keep frozen (-18°C or below). Do not refreeze once defrosted.Filling: Chicken meat, Salt, Sugar, Spices, Green Chili, Onion, and Soybean Oil.Pastry: Flour, Corn Starch, Salt, Water &amp; Soybean Oil.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Chicken Snacks</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Golden Harvest Deshi Paratha 20 pcs</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1300 gm</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>৳ 310</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Get a classic golden frozen paratha family pack from us as your daily breakfast. One pack covers for one family. Hassle-free and easy to serve. Just tear off the packet and put it on the griddle for a few minutes and then serve it. It’s a good food for your good health.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Frozen Parathas &amp; Roti</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Jhatpot Low Fat Paratha 1200 gm</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>20 pcs</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>৳ 250</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Frozen Parathas &amp; Roti</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Hibiscus Mushrooms Choice Whole Can</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>425 gm</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>৳ 179</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Mushroom Cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>King Bell Green Peas In Brine</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>425 gm</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>৳ 140</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Origin:Thailand</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Vegetable Cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Del Monte Fresh Cut Sweet Peas Can</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>425 gm</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>৳ 199</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Vegetable Cans</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Figaro Stuffed Green Olive</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>340 gm</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>৳ 150</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Canned Fruits &amp; Sweets</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Figaro Sliced Green Olives</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>340 gm</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>৳ 150</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Canned Fruits &amp; Sweets</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Soft Shell Crab Tempura</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>৳ 599</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Fish Snacks</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>OceanRia Fish Sandwich</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>৳ 599</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Origin: Malaysia</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Fish Snacks</t>
+          <t>Diabetic Food</t>
         </is>
       </c>
     </row>
